--- a/testData/Profile.xlsx
+++ b/testData/Profile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\git\EIDSA_IntegrationTest\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\eclipse-workspace\EndToEnd_EIDSA\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FA9729-A4A0-4587-8D72-8FF0A45346B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6AE1F-8802-42C8-96B3-A7C6E633C924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -50,12 +49,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Neethur</t>
-  </si>
-  <si>
-    <t>neethur@yopmail.com</t>
-  </si>
-  <si>
     <t>Pwd1</t>
   </si>
   <si>
@@ -65,22 +58,19 @@
     <t>Pwd3</t>
   </si>
   <si>
-    <t>Study</t>
-  </si>
-  <si>
-    <t>Neethu@5a</t>
-  </si>
-  <si>
-    <t>IDS02</t>
-  </si>
-  <si>
-    <t>Neethu@5b</t>
+    <t>Neethug</t>
+  </si>
+  <si>
+    <t>neethug@yopmail.com</t>
   </si>
   <si>
     <t>Neethu@8</t>
   </si>
   <si>
     <t>Neethu@9</t>
+  </si>
+  <si>
+    <t>Neethu@10</t>
   </si>
 </sst>
 </file>
@@ -418,7 +408,7 @@
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -434,10 +424,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -469,13 +459,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -483,10 +473,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +494,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,24 +506,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -544,32 +534,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214913D4-1F4F-4896-90EB-CEA97EE55769}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>